--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
@@ -525,703 +525,643 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>10/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>10/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>10/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VERDECARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>10/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>10/05/25</t>
+          <t>12/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Operadoras sem arquivos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Operadoras sem arquivos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,46 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>12/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>12/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>12/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>12/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,22 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>12/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>12/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
@@ -477,643 +477,871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12/05/25</t>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>12/05/25</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>13/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,118 +1228,10 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
         <is>
           <t>13/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,70 +1168,10 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
         <is>
           <t>13/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,46 +1132,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>13/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,22 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
         <is>
           <t>13/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
@@ -453,679 +453,1003 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>AVANCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>DMCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13/05/25</t>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>13/05/25</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DMCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DMCARD</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,118 +1336,10 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DMCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DMCARD</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,70 +1276,10 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>DMCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DMCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,82 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVANCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DMCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,58 +1156,10 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,22 +1144,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,22 +1132,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
         <is>
           <t>14/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
@@ -477,667 +477,919 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14/05/25</t>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>14/05/25</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>15/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,190 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TICKET</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
         <is>
           <t>15/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,106 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>15/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,22 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
         <is>
           <t>15/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,22 +1084,10 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
         <is>
           <t>15/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
@@ -477,619 +477,859 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15/05/25</t>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>15/05/25</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,106 +1228,10 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
         <is>
           <t>16/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,82 +1156,10 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
         <is>
           <t>16/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,46 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>16/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,22 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>16/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,22 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
         <is>
           <t>16/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
@@ -477,631 +477,859 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16/05/25</t>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TRICARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>16/05/25</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>17/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
@@ -453,883 +453,847 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TRICARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VERO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>17/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>17/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>17/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>17/05/25</t>
+          <t>18/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -453,127 +453,127 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -729,31 +729,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
@@ -897,403 +897,475 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VERO</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WEBCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18/05/25</t>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>WIZEO</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>18/05/25</t>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>19/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VALECARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,46 +1324,10 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
         <is>
           <t>19/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VALECARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VEGASCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,22 +1312,10 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WEBCARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
         <is>
           <t>19/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,118 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
         <is>
           <t>19/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,94 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>19/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,34 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>19/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
@@ -477,631 +477,907 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19/05/25</t>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TICKET</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>19/05/25</t>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,178 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TICKET</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
         <is>
           <t>20/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,46 +1168,10 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>20/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,22 +1156,10 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>20/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,22 +1144,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>20/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,22 +1132,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
         <is>
           <t>20/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
@@ -477,667 +477,967 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20/05/25</t>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>20/05/25</t>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>21/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,118 +1324,10 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
         <is>
           <t>21/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,94 +1240,10 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
         <is>
           <t>21/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,130 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>21/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,22 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>21/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,679 +441,1195 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>ABRAPETITE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>ACCREDITO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>AMEX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>BRASILCONVENIO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CDCCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>COMPROCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>LIBERCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21/05/25</t>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>NEUSFESTECARD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NUTRICASH</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>OPERADORA TESTE CODIGO</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PAGOLIVRE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PAGSIMPLES</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ROMCARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>21/05/25</t>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>22/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABRAPETITE</t>
+          <t>AMEX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACCREDITO</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BRASILCONVENIO</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CDCCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COMPROCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LIBERCARD</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ROMCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,118 +1516,10 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
         <is>
           <t>22/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,214 +1312,10 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SYSPROCARD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>TEGYNBTEN</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
         <is>
           <t>22/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,82 +1240,10 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
         <is>
           <t>22/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,46 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>22/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,34 +1180,10 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>22/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
@@ -501,691 +501,955 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>SEM PARA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22/05/25</t>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>22/05/25</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>23/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SEM PARA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,118 +1336,10 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
         <is>
           <t>23/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,94 +1252,10 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
         <is>
           <t>23/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,58 +1204,10 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
         <is>
           <t>23/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,46 +1168,10 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>23/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,34 +1144,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>23/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -489,67 +489,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
@@ -705,451 +705,595 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>23/05/25</t>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VERO</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>23/05/25</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>25/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
@@ -489,295 +489,295 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
@@ -789,511 +789,595 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VERO</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>25/05/25</t>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VERO</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>25/05/25</t>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>26/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,166 +1216,10 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VERO</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
         <is>
           <t>26/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,58 +1168,10 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
         <is>
           <t>26/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,58 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>26/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,22 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>26/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,22 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
         <is>
           <t>26/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,667 +441,1111 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>ACCREDITO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>AMEX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BIQ BENEFICIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>BRASILCONVENIO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CDCCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>COMPROCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>LIBERCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>26/05/25</t>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>PAGUELOGO</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PEDEPRONTO</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PERSONALCARD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PITCARD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PIXBB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PLANVALE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RAPPI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RAPPI FARMACIA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>REDEMED</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>REDETENDENCIA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>REDETREL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SANTANDER</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SERTAOCARD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SYSPROCARD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VALESHOP</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>26/05/25</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>27/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACCREDITO</t>
+          <t>AMEX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BIQ BENEFICIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRASILCONVENIO</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CDCCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COMPROCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LIBERCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,154 +1396,10 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
         <is>
           <t>27/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,178 +1228,10 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>TRIOCARD</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>VALESHOP</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
         <is>
           <t>27/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,106 +1132,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
         <is>
           <t>27/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,34 +1108,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
         <is>
           <t>27/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
@@ -453,667 +453,919 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>AVANCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27/05/25</t>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>27/05/25</t>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>28/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVANCARD</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,106 +1264,10 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
         <is>
           <t>28/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,142 +1132,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
         <is>
           <t>28/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,22 +1120,10 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
         <is>
           <t>28/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,34 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
         <is>
           <t>28/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
@@ -477,631 +477,847 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28/05/25</t>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>28/05/25</t>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>29/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,82 +1240,10 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
         <is>
           <t>29/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,154 +1096,10 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>TESTE32</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>TODOCARTOES</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TRIPAG</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>UBEREATS</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>29/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
@@ -453,655 +453,919 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANESCARD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>29/05/25</t>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>SESIMAX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SHELLBOX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SICREDI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SINDPLUS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SODEXO</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLUCARD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOMA CONTA DIGITAL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOROCRED</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TEGYNBTEN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TESTE32</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TODOCARTOES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TRIOCARD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRIPAG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UBEREATS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>USACARD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VALECARD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VALECON</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VALEMAIS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VEGASCARD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>WEBCARD</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>29/05/25</t>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WIZEO</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>30/05/25</t>
         </is>
       </c>
     </row>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANESCARD</t>
+          <t>BANPARA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANPARA</t>
+          <t>BANRICARD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANRICARD</t>
+          <t>BENVISAVALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BIGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BLACKHAWK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,82 +1288,10 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>VALECARD</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
         <is>
           <t>30/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIGCARD</t>
+          <t>BLACKHAWK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLACKHAWK</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>GETNET</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,70 +1228,10 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>VEGASCARD</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
         <is>
           <t>30/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BENVISAVALE</t>
+          <t>BLACKHAWK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLACKHAWK</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GETNET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,70 +1168,10 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>USACARD</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>VALECON</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>VALEMAIS</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
         <is>
           <t>30/05/25</t>
         </is>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,18 +1165,6 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/operadoras_sem_arquivos_hoje.xlsx
+++ b/operadoras_sem_arquivos_hoje.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,22 +1144,10 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>30/05/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>WEBCARD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
         <is>
           <t>30/05/25</t>
         </is>
